--- a/model/sysml/WP3-Initial-Architecture/ManageLocationRelatedInformation/ManageTrainPosition/ManagePositionReport/DataTypes.xlsx
+++ b/model/sysml/WP3-Initial-Architecture/ManageLocationRelatedInformation/ManageTrainPosition/ManagePositionReport/DataTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="18912" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="18912" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="249">
   <si>
     <t>Name</t>
   </si>
@@ -714,6 +714,96 @@
   </si>
   <si>
     <t>Packet 1</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>calc: estimated front end - min safe front end</t>
+  </si>
+  <si>
+    <t>calc: max safe front end - estimated front end</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>given/generated</t>
+  </si>
+  <si>
+    <t>given by train coordination system -&gt; Uwe</t>
+  </si>
+  <si>
+    <t>calc: estimated front end - min safe rear end; min safe rear end = min safe front end - train length</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>positionedBG_T</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>calc: estimated front end - LRBG(-&gt;PositionedBG_T)</t>
+  </si>
+  <si>
+    <t>(use trainPosition_T from Uwe)</t>
+  </si>
+  <si>
+    <t>RBC_Info</t>
+  </si>
+  <si>
+    <t>Msg32</t>
+  </si>
+  <si>
+    <t>NID_MESSAGE</t>
+  </si>
+  <si>
+    <t>L_MESSAGE</t>
+  </si>
+  <si>
+    <t>T_TRAIN</t>
+  </si>
+  <si>
+    <t>M_ACK</t>
+  </si>
+  <si>
+    <t>M_VERSION</t>
+  </si>
+  <si>
+    <t>Msg38</t>
+  </si>
+  <si>
+    <t>Message 32</t>
+  </si>
+  <si>
+    <t>7.5.1.59</t>
+  </si>
+  <si>
+    <t>Qualifier for acknowledgement request</t>
+  </si>
+  <si>
+    <t>0=No Ack required; 1=Ack required</t>
+  </si>
+  <si>
+    <t>Version of ETCS system</t>
+  </si>
+  <si>
+    <t>7.5.1.79</t>
+  </si>
+  <si>
+    <t>This gives the version of the ETCS system
+Each part indicates the first and second number of the version respectively.
+- The first number distinguishes not compatible versions. (The three MSB’s)
+- The second number indicates compatibility within a version X. (The four LSB’s)</t>
+  </si>
+  <si>
+    <t>000XXXX</t>
+  </si>
+  <si>
+    <t>Message 38</t>
   </si>
 </sst>
 </file>
@@ -795,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -866,6 +956,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1171,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,7 +2249,7 @@
         <v>8191</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>153</v>
       </c>
@@ -2225,7 +2318,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -2306,6 +2399,202 @@
       </c>
       <c r="G33" s="1" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1111111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="25">
+        <v>1</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3088,16 +3377,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3171,494 +3461,661 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>231</v>
+      </c>
       <c r="B19" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+      <c r="C51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+      <c r="C55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="13" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="17" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="17" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>215</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="17" t="s">
-        <v>36</v>
+      <c r="B100" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="17" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="19" t="s">
-        <v>82</v>
+      <c r="B103" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="17" t="s">
-        <v>14</v>
+      <c r="B104" s="19" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="19" t="s">
-        <v>186</v>
+      <c r="B107" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="17" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="17" t="s">
-        <v>89</v>
+      <c r="B109" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="17" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="17" t="s">
+      <c r="B112" s="17" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/model/sysml/WP3-Initial-Architecture/ManageLocationRelatedInformation/ManageTrainPosition/ManagePositionReport/DataTypes.xlsx
+++ b/model/sysml/WP3-Initial-Architecture/ManageLocationRelatedInformation/ManageTrainPosition/ManagePositionReport/DataTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="18912" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="18912" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="251">
   <si>
     <t>Name</t>
   </si>
@@ -755,9 +755,6 @@
     <t>RBC_Info</t>
   </si>
   <si>
-    <t>Msg32</t>
-  </si>
-  <si>
     <t>NID_MESSAGE</t>
   </si>
   <si>
@@ -771,9 +768,6 @@
   </si>
   <si>
     <t>M_VERSION</t>
-  </si>
-  <si>
-    <t>Msg38</t>
   </si>
   <si>
     <t>Message 32</t>
@@ -804,6 +798,18 @@
   </si>
   <si>
     <t>Message 38</t>
+  </si>
+  <si>
+    <t>newSessionEstablished:Bool</t>
+  </si>
+  <si>
+    <t>maxSafeFrontEndPassed:Bool</t>
+  </si>
+  <si>
+    <t>minSafeRearEndPassed:Bool</t>
+  </si>
+  <si>
+    <t>alternatively: position of the RBC</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
@@ -1962,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2403,12 +2409,12 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>5</v>
@@ -2420,7 +2426,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>7</v>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="24" t="s">
@@ -2444,13 +2450,13 @@
     </row>
     <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2459,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2483,19 +2489,19 @@
     </row>
     <row r="41" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F41" s="1">
         <v>1111111</v>
@@ -2503,7 +2509,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -2514,7 +2520,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>5</v>
@@ -2529,7 +2535,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>7</v>
@@ -2544,7 +2550,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="24" t="s">
@@ -2559,13 +2565,13 @@
     </row>
     <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25">
@@ -2575,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2607,7 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G42"/>
     </sheetView>
   </sheetViews>
@@ -3377,16 +3383,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118:B123"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4049,73 +4055,25 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>233</v>
-      </c>
+      <c r="B116" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>239</v>
-      </c>
-      <c r="B126" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/model/sysml/WP3-Initial-Architecture/ManageLocationRelatedInformation/ManageTrainPosition/ManagePositionReport/DataTypes.xlsx
+++ b/model/sysml/WP3-Initial-Architecture/ManageLocationRelatedInformation/ManageTrainPosition/ManagePositionReport/DataTypes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -809,7 +809,16 @@
     <t>minSafeRearEndPassed:Bool</t>
   </si>
   <si>
-    <t>alternatively: position of the RBC</t>
+    <t>PositionedBGs</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>(use PositionedBG_T from Uwe)</t>
+  </si>
+  <si>
+    <t>comment: alternatively, use position of the RBC</t>
   </si>
 </sst>
 </file>
@@ -891,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -967,6 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1270,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
@@ -3383,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3482,7 +3492,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="31" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -3524,235 +3534,223 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>216</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B45" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>204</v>
+      <c r="B50" s="19" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>203</v>
@@ -3760,55 +3758,58 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="19" t="s">
-        <v>82</v>
+      <c r="B63" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="17" t="s">
         <v>14</v>
       </c>
@@ -3816,44 +3817,44 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C73" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
         <v>19</v>
       </c>
@@ -3861,158 +3862,167 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C79" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>215</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B81" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="17" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="17" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="17" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="17" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="19" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="17" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="17" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="17" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="17" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="17" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C91" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="17" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="17" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="17" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="17" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="17" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="17" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="19" t="s">
-        <v>82</v>
+      <c r="B100" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="17" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="19" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
@@ -4022,27 +4032,27 @@
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="17" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="17" t="s">
-        <v>90</v>
+      <c r="B108" s="19" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="19" t="s">
-        <v>98</v>
+      <c r="B109" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="17" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
@@ -4052,27 +4062,47 @@
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>232</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B120" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
         <v>249</v>
       </c>
-      <c r="C117" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
+      <c r="C121" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>248</v>
       </c>
     </row>

--- a/model/sysml/WP3-Initial-Architecture/ManageLocationRelatedInformation/ManageTrainPosition/ManagePositionReport/DataTypes.xlsx
+++ b/model/sysml/WP3-Initial-Architecture/ManageLocationRelatedInformation/ManageTrainPosition/ManagePositionReport/DataTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="18912" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="18912" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>comment: alternatively, use position of the RBC</t>
+  </si>
+  <si>
+    <t>when the signal occurs; disable afterward</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
@@ -1978,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2176,12 +2179,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>140</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2623,7 +2629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G42"/>
     </sheetView>
   </sheetViews>
@@ -3395,7 +3401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
